--- a/instructionstotest.xlsx
+++ b/instructionstotest.xlsx
@@ -583,13 +583,14 @@
   <dimension ref="A1:AC52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X45" sqref="X45"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
@@ -2564,8 +2565,8 @@
       <c r="R32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S32" s="2" t="s">
-        <v>10</v>
+      <c r="S32" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="T32" s="2" t="s">
         <v>26</v>

--- a/instructionstotest.xlsx
+++ b/instructionstotest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19344" windowHeight="8868" xr2:uid="{41DDB5ED-0108-4CD1-BE7D-2E1853AD4B03}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19344" windowHeight="8868" xr2:uid="{41DDB5ED-0108-4CD1-BE7D-2E1853AD4B03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -582,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29BCCC40-6D2B-48C6-88CF-0F72C2A0BCCC}">
   <dimension ref="A1:AC52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S44" sqref="S44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
